--- a/Coding Excel Sheet.xlsx
+++ b/Coding Excel Sheet.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="850">
   <si>
     <t>Participant ID</t>
   </si>
@@ -470,6 +470,9 @@
     <t>dog shouldnt hit objects</t>
   </si>
   <si>
+    <t>“They usually listen to us. We don't listen to dogs. Yeah. So I was expecting like he was following me or he needs commands from me. That’s why I was talking to him. “</t>
+  </si>
+  <si>
     <t>ears</t>
   </si>
   <si>
@@ -845,7 +848,9 @@
     <t>yes (if it was a bit smaller)</t>
   </si>
   <si>
-    <t>“a normal dog won't tell me to water my flowers. So it's not something I would expect at first”</t>
+    <t>“a normal dog won't tell me to water my flowers. So it's not something I would expect at first”
+“Like, I can imagine, I don't know, probably others, like, participants who have experience with dogs might be able to understand a bit more.
+I mean, like it just took quite… like, after a long while for me before I start to recognize - Ahh, the dog is trying to communicate something to me.”</t>
   </si>
   <si>
     <t>“Not really clear because like, to be honest, like a normal dog won't tell me to water my flowers. So it's not something I would expect at first, like okay, the robot-dog wanted me to put I don’t know, the novel, you know on the shelf or anything. So I kind of lost it a little bit. (…) And in second one. Yeah it started like okay, the dog is trying to look at this direction again and again. So I grab a book because that was the first thing I saw, but I wasn't even quite sure if it just about the book or it just saying that, okay? Am I suppose to, you know, to stand and you know, because like the robot looked to the side, like to the right side. So I was thinking probably like the task wasn't about the book, it was about telling me to go there.
@@ -1094,7 +1099,8 @@
     <t>not in its current state of implementation (bc too limited in its features)</t>
   </si>
   <si>
-    <t>“Because we see dogs as, like, pets in our environment in the house.”</t>
+    <t>“Because we see dogs as, like, pets in our environment in the house.” “So maybe because of that, I didn't really have expectations and then I was just confused, but for the water parts, I at first, I thought maybe the dog itself wanted water, but I thought it's… it can't drink so maybe it’s something else. So then I just realized, yes, it's the watering the plant.
+So at the end, it became more clear, but with the second one I had a lot of struggles. I was confused. ”</t>
   </si>
   <si>
     <t xml:space="preserve">“I only after the study did I realize the dog was actually trying to, like, get me to take the books. I didn't know what was happening in that moment. So that was a little confusing. I mean, I didn't really realize the dog would be, you know, make me do stuff. (…) So at the end, it became more clear, but with the second one I had a lot of struggles. I was confused. ” [on how clear the dog’s intentions were] </t>
@@ -1531,6 +1537,9 @@
     <t xml:space="preserve">dog should ask for being petted, </t>
   </si>
   <si>
+    <t>“Not that much. But, a little. Like knowing a dog wants something from you. That's why it approaches you. Either it wants, like, attention or something else.”</t>
+  </si>
+  <si>
     <t>“And I was like, what do I.. I was like, should I sit on there? Should I ..does it want me to take the books? Is there something? Maybe in the shelves? And I was not so sure about that… but later on, with like the water, yeah with water I understood it more because it were like… it was very easy that it could directly go there to the water. So I was like okay. ” [on how clear the dog was]</t>
   </si>
   <si>
@@ -1610,6 +1619,9 @@
   </si>
   <si>
     <t>make the interaction positive in te beginning instead of using whining</t>
+  </si>
+  <si>
+    <t>“Yeah I was thinking does it need pets, or something? Yeah. With like a real dog, I would behave the same way, like giving it my hand. But this dog did not react to my hand. So I was like, what does it want? Yeah. But after getting up, yeah, he showed me.”</t>
   </si>
   <si>
     <t>good</t>
@@ -1661,6 +1673,10 @@
     <t>more graphics to make its facial expressions more conveying</t>
   </si>
   <si>
+    <t>“Yeah. I mean I won't say it was then interactive because I was unable to pet the dog, so it was more like whatever he was doing, I was just looking at him and enjoying. So yeah, I would say it was okay if we think about the robot then it was good but it could be….” “Okay, I think I didn't understand what the dog was about to say, and I don't know, because I'm relating this dog to directly to original dog basically.
+So I would say that there are so many signals, a real dog do so that you will understand what exactly he want to ask for. So I think those signals were missing, but yeah, because I can't read the language of the dog, basically. He was just barking and he was just making faces, so it was not easy to understand. Yeah.”</t>
+  </si>
+  <si>
     <t xml:space="preserve">a bit </t>
   </si>
   <si>
@@ -1737,6 +1753,9 @@
   </si>
   <si>
     <t>dog pushing you physically into directions instead of just leading you somewhere</t>
+  </si>
+  <si>
+    <t>“Well, it's just hypothetically speaking, but I wonder if I had more experience with actual dogs… If I would have been able to understand its intentions better.”</t>
   </si>
   <si>
     <t>“And yeah, watering the flowers, again, with a watering can… Yeah, I picked that one up and I was just wondering whether it wanted water itself, like to drink. So, I didn't know if you went that close… and I was briefly thinking about, putting it into this container, that the watering can was on.
@@ -1879,6 +1898,9 @@
     <t>not at this state but the improved version</t>
   </si>
   <si>
+    <t>“I mean you can know when dog wants something so they have like this side eye thing that the robot did as well. Umm, and I mean because of the tail wiggling, you knew that he was happy, so you did something right. Yeah, that was the main point probably why I knew you wanted me to do something.”</t>
+  </si>
+  <si>
     <t>“Then the second task wasn't really clear for me because first, I had to like go to the chair and then I thought it was okay for me to sit down because he then already like wiggled his tail. [on how clear the robot dogs intentions were]
 So I thought that the task was over. So I didn't get the hint with the books to get to the shelf because I thought this this would be another task because I already did something with the chair so that wasn't really clear for me. [on how clear the robot dogs intentions were]
 And for the third task, I think it was more clear than the other task because you know, you know what to do with a watering can. So yeah, that was kind of there for me. The affordance was there so I knew what to do.” [on how clear the robot dogs intentions were]</t>
@@ -1968,7 +1990,7 @@
     <t>not interested for now</t>
   </si>
   <si>
-    <t>“Some of the sounds were quite funny. Especially the breathing. Reminded me like of a huge dog with breathing problems.”</t>
+    <t>“Some of the sounds were quite funny. Especially the breathing. Reminded me like of a huge dog with breathing problems.” “Maybe, if you live with the dog, you can get the intentions better from the robotic system yeah.”</t>
   </si>
   <si>
     <t>nicely looking vacuum robot</t>
@@ -2088,7 +2110,7 @@
     <t>add legs</t>
   </si>
   <si>
-    <t>“ sort of more like a toy and nothing like a real, like dog company”</t>
+    <t>“ sort of more like a toy and nothing like a real, like dog company” “I think if it might have affected the way I interacted with it, maybe a dog owner would be more active. I was sort of, mostly observing, I think, to see what it wanted of me.”</t>
   </si>
   <si>
     <t>“Okay, now that I have that kind of input, I can now see how it was kind of trying to get my attention to the, to the chair. And again, I thought it was just doing random things to, at least some extent, but then I was also wondering: Okay, what should I do? [on how clear the robot dogs intentions were]
@@ -5364,7 +5386,9 @@
       <c r="AY7" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="AZ7" s="41"/>
+      <c r="AZ7" s="66" t="s">
+        <v>141</v>
+      </c>
       <c r="BA7" s="42"/>
       <c r="BB7" s="42"/>
       <c r="BC7" s="43"/>
@@ -5380,12 +5404,12 @@
       <c r="D8" s="15"/>
       <c r="E8" s="16"/>
       <c r="F8" s="83" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="16"/>
       <c r="I8" s="95" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J8" s="15"/>
       <c r="K8" s="16"/>
@@ -5393,28 +5417,28 @@
         <v>26</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N8" s="93" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
       <c r="S8" s="81" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="T8" s="21"/>
       <c r="U8" s="51" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="V8" s="16"/>
       <c r="W8" s="22" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="X8" s="18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Y8" s="78" t="s">
         <v>98</v>
@@ -5423,16 +5447,16 @@
       <c r="AA8" s="54"/>
       <c r="AB8" s="55"/>
       <c r="AC8" s="56" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AD8" s="28"/>
       <c r="AE8" s="56" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AF8" s="31"/>
       <c r="AG8" s="28"/>
       <c r="AH8" s="56" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AI8" s="28"/>
       <c r="AJ8" s="32" t="s">
@@ -5441,13 +5465,13 @@
       <c r="AK8" s="31"/>
       <c r="AL8" s="31"/>
       <c r="AM8" s="58" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AN8" s="59" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AO8" s="34" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AP8" s="37"/>
       <c r="AQ8" s="37"/>
@@ -5473,7 +5497,7 @@
         <v>26</v>
       </c>
       <c r="BC8" s="75" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" ht="37.5" customHeight="1">
@@ -5487,10 +5511,10 @@
       <c r="D9" s="15"/>
       <c r="E9" s="16"/>
       <c r="F9" s="83" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G9" s="70" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H9" s="16"/>
       <c r="I9" s="84" t="s">
@@ -5502,30 +5526,30 @@
         <v>26</v>
       </c>
       <c r="M9" s="48" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N9" s="96" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O9" s="51" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P9" s="15"/>
       <c r="Q9" s="15"/>
       <c r="R9" s="15"/>
       <c r="S9" s="20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="T9" s="21"/>
       <c r="U9" s="53" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="V9" s="16"/>
       <c r="W9" s="97" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="X9" s="18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Y9" s="26" t="s">
         <v>35</v>
@@ -5544,42 +5568,42 @@
       </c>
       <c r="AD9" s="28"/>
       <c r="AE9" s="98" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF9" s="32" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG9" s="28"/>
       <c r="AH9" s="91" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AI9" s="28"/>
       <c r="AJ9" s="93" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK9" s="72" t="s">
+        <v>169</v>
+      </c>
+      <c r="AL9" s="99" t="s">
         <v>168</v>
       </c>
-      <c r="AL9" s="99" t="s">
-        <v>167</v>
-      </c>
       <c r="AM9" s="58" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AN9" s="60" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AO9" s="37"/>
       <c r="AP9" s="37"/>
       <c r="AQ9" s="37"/>
       <c r="AR9" s="74" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AS9" s="31"/>
       <c r="AT9" s="31"/>
       <c r="AU9" s="31"/>
       <c r="AV9" s="38" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AW9" s="31"/>
       <c r="AX9" s="31"/>
@@ -5587,7 +5611,7 @@
         <v>26</v>
       </c>
       <c r="AZ9" s="100" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="BA9" s="42"/>
       <c r="BB9" s="42"/>
@@ -5601,7 +5625,7 @@
         <v>109</v>
       </c>
       <c r="C10" s="51" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="16"/>
@@ -5611,36 +5635,36 @@
       <c r="G10" s="15"/>
       <c r="H10" s="16"/>
       <c r="I10" s="14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J10" s="15"/>
       <c r="K10" s="16"/>
       <c r="L10" s="19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M10" s="101" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N10" s="51" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O10" s="15"/>
       <c r="P10" s="15"/>
       <c r="Q10" s="15"/>
       <c r="R10" s="15"/>
       <c r="S10" s="102" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="T10" s="21"/>
       <c r="U10" s="85" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="V10" s="16"/>
       <c r="W10" s="97" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="X10" s="18" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y10" s="23" t="s">
         <v>32</v>
@@ -5658,35 +5682,35 @@
       <c r="AF10" s="31"/>
       <c r="AG10" s="28"/>
       <c r="AH10" s="79" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AI10" s="28"/>
       <c r="AJ10" s="31" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AK10" s="72" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL10" s="103" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM10" s="58" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AN10" s="59" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AO10" s="37"/>
       <c r="AP10" s="37"/>
       <c r="AQ10" s="37"/>
       <c r="AR10" s="104" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AS10" s="31"/>
       <c r="AT10" s="31"/>
       <c r="AU10" s="31"/>
       <c r="AV10" s="38" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AW10" s="31"/>
       <c r="AX10" s="31"/>
@@ -5703,7 +5727,7 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -5724,13 +5748,13 @@
         <v>26</v>
       </c>
       <c r="M11" s="47" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N11" s="89" t="s">
         <v>90</v>
       </c>
       <c r="O11" s="51" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P11" s="15"/>
       <c r="Q11" s="15"/>
@@ -5740,14 +5764,14 @@
       </c>
       <c r="T11" s="21"/>
       <c r="U11" s="53" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="V11" s="16"/>
       <c r="W11" s="107" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="X11" s="18" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Y11" s="78" t="s">
         <v>98</v>
@@ -5772,18 +5796,18 @@
       <c r="AK11" s="31"/>
       <c r="AL11" s="31"/>
       <c r="AM11" s="58" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AN11" s="37" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AO11" s="108" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AP11" s="37"/>
       <c r="AQ11" s="37"/>
       <c r="AR11" s="74" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AS11" s="31"/>
       <c r="AT11" s="31"/>
@@ -5806,21 +5830,21 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="16"/>
       <c r="F12" s="92" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="16"/>
       <c r="I12" s="46" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J12" s="51" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K12" s="16"/>
       <c r="L12" s="47" t="s">
@@ -5830,27 +5854,27 @@
         <v>71</v>
       </c>
       <c r="N12" s="109" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
       <c r="Q12" s="15"/>
       <c r="R12" s="15"/>
       <c r="S12" s="106" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="T12" s="21"/>
       <c r="U12" s="15" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="V12" s="28" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="W12" s="110" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="X12" s="18" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Y12" s="23" t="s">
         <v>32</v>
@@ -5869,52 +5893,52 @@
       </c>
       <c r="AD12" s="28"/>
       <c r="AE12" s="69" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF12" s="56" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG12" s="28"/>
       <c r="AH12" s="31" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AI12" s="28"/>
       <c r="AJ12" s="111" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AK12" s="57" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL12" s="31"/>
       <c r="AM12" s="58" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN12" s="112" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AO12" s="37"/>
       <c r="AP12" s="37"/>
       <c r="AQ12" s="37"/>
       <c r="AR12" s="74" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AS12" s="113" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AT12" s="31"/>
       <c r="AU12" s="31"/>
       <c r="AV12" s="87" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AW12" s="31" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AX12" s="31"/>
       <c r="AY12" s="14" t="s">
         <v>88</v>
       </c>
       <c r="AZ12" s="66" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="BA12" s="42"/>
       <c r="BB12" s="42"/>
@@ -5925,7 +5949,7 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -5936,7 +5960,7 @@
       <c r="G13" s="15"/>
       <c r="H13" s="16"/>
       <c r="I13" s="88" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J13" s="15"/>
       <c r="K13" s="16"/>
@@ -5944,36 +5968,36 @@
         <v>91</v>
       </c>
       <c r="M13" s="19" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N13" s="77" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O13" s="109" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P13" s="15"/>
       <c r="Q13" s="15"/>
       <c r="R13" s="15"/>
       <c r="S13" s="114" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="T13" s="21"/>
       <c r="U13" s="109" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="V13" s="16"/>
       <c r="W13" s="107" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="X13" s="18" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Y13" s="23" t="s">
         <v>32</v>
       </c>
       <c r="Z13" s="115" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AA13" s="54"/>
       <c r="AB13" s="55"/>
@@ -5982,27 +6006,27 @@
       </c>
       <c r="AD13" s="28"/>
       <c r="AE13" s="93" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF13" s="31"/>
       <c r="AG13" s="28"/>
       <c r="AH13" s="31"/>
       <c r="AI13" s="28"/>
       <c r="AJ13" s="111" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AK13" s="57" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL13" s="31"/>
       <c r="AM13" s="58" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AN13" s="34" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AO13" s="36" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AP13" s="37"/>
       <c r="AQ13" s="37"/>
@@ -6013,17 +6037,17 @@
       <c r="AT13" s="31"/>
       <c r="AU13" s="31"/>
       <c r="AV13" s="116" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AW13" s="63" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AX13" s="31"/>
       <c r="AY13" s="18" t="s">
         <v>26</v>
       </c>
       <c r="AZ13" s="66" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="BA13" s="42"/>
       <c r="BB13" s="42"/>
@@ -6034,22 +6058,22 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="16"/>
       <c r="F14" s="117" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G14" s="50" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H14" s="118" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I14" s="84" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J14" s="15"/>
       <c r="K14" s="16"/>
@@ -6060,22 +6084,22 @@
         <v>26</v>
       </c>
       <c r="N14" s="119" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
       <c r="Q14" s="15"/>
       <c r="R14" s="15"/>
       <c r="S14" s="106" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="T14" s="21"/>
       <c r="V14" s="16"/>
       <c r="W14" s="110" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="X14" s="18" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Y14" s="78" t="s">
         <v>98</v>
@@ -6084,11 +6108,11 @@
       <c r="AA14" s="54"/>
       <c r="AB14" s="55"/>
       <c r="AC14" s="79" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AD14" s="28"/>
       <c r="AE14" s="120" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF14" s="31"/>
       <c r="AG14" s="28"/>
@@ -6097,49 +6121,49 @@
       </c>
       <c r="AI14" s="28"/>
       <c r="AJ14" s="56" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AK14" s="121" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AM14" s="58" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AN14" s="60" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AO14" s="108" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AP14" s="59" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AQ14" s="37"/>
       <c r="AR14" s="104" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AS14" s="31"/>
       <c r="AT14" s="31"/>
       <c r="AU14" s="31"/>
       <c r="AV14" s="38" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AW14" s="62" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AX14" s="31"/>
       <c r="AY14" s="18" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AZ14" s="66" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BA14" s="67" t="s">
         <v>26</v>
       </c>
       <c r="BB14" s="42"/>
       <c r="BC14" s="75" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" ht="37.5" customHeight="1">
@@ -6150,12 +6174,12 @@
         <v>23</v>
       </c>
       <c r="C15" s="109" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="16"/>
       <c r="F15" s="117" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="16"/>
@@ -6171,25 +6195,25 @@
         <v>26</v>
       </c>
       <c r="N15" s="50" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O15" s="15"/>
       <c r="P15" s="15"/>
       <c r="Q15" s="15"/>
       <c r="R15" s="15"/>
       <c r="S15" s="106" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="T15" s="21"/>
       <c r="U15" s="53" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="V15" s="16"/>
       <c r="W15" s="22" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="X15" s="27" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Y15" s="23" t="s">
         <v>32</v>
@@ -6198,11 +6222,11 @@
         <v>98</v>
       </c>
       <c r="AA15" s="112" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AB15" s="55"/>
       <c r="AC15" s="91" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AD15" s="28"/>
       <c r="AE15" s="32" t="s">
@@ -6211,41 +6235,41 @@
       <c r="AF15" s="31"/>
       <c r="AG15" s="28"/>
       <c r="AH15" s="91" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AI15" s="28"/>
       <c r="AJ15" s="117" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AK15" s="121" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM15" s="58" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AN15" s="37"/>
       <c r="AO15" s="37"/>
       <c r="AP15" s="37"/>
       <c r="AQ15" s="37"/>
       <c r="AR15" s="104" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AS15" s="122" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AT15" s="123" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AU15" s="32" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AV15" s="124" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AW15" s="31"/>
       <c r="AX15" s="31"/>
       <c r="AY15" s="18" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AZ15" s="41"/>
       <c r="BA15" s="42"/>
@@ -6253,7 +6277,7 @@
         <v>26</v>
       </c>
       <c r="BC15" s="75" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" ht="37.5" customHeight="1">
@@ -6261,20 +6285,20 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="16"/>
       <c r="F16" s="86" t="s">
+        <v>242</v>
+      </c>
+      <c r="G16" s="125" t="s">
         <v>241</v>
-      </c>
-      <c r="G16" s="125" t="s">
-        <v>240</v>
       </c>
       <c r="H16" s="16"/>
       <c r="I16" s="14" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J16" s="15"/>
       <c r="K16" s="16"/>
@@ -6282,30 +6306,30 @@
         <v>26</v>
       </c>
       <c r="M16" s="47" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N16" s="51" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O16" s="109" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P16" s="15"/>
       <c r="Q16" s="15"/>
       <c r="R16" s="15"/>
       <c r="S16" s="106" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="T16" s="21"/>
       <c r="U16" s="109" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="V16" s="16"/>
       <c r="W16" s="97" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="X16" s="18" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Y16" s="26" t="s">
         <v>35</v>
@@ -6320,48 +6344,48 @@
       </c>
       <c r="AD16" s="28"/>
       <c r="AE16" s="17" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF16" s="63" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG16" s="126" t="s">
         <v>51</v>
       </c>
       <c r="AH16" s="91" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AI16" s="28"/>
       <c r="AJ16" s="111" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AK16" s="72" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AL16" s="57" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AM16" s="58" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN16" s="60" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO16" s="34" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AP16" s="36" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AQ16" s="37"/>
       <c r="AR16" s="87" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AS16" s="31"/>
       <c r="AT16" s="31"/>
       <c r="AU16" s="31"/>
       <c r="AV16" s="127" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AW16" s="31"/>
       <c r="AX16" s="31"/>
@@ -6369,7 +6393,7 @@
         <v>26</v>
       </c>
       <c r="AZ16" s="66" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="BA16" s="42"/>
       <c r="BB16" s="42"/>
@@ -6380,20 +6404,20 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="95" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D17" s="128" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E17" s="16"/>
       <c r="F17" s="129" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G17" s="130" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H17" s="16"/>
       <c r="I17" s="95" t="s">
@@ -6408,25 +6432,25 @@
         <v>26</v>
       </c>
       <c r="N17" s="109" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O17" s="15"/>
       <c r="P17" s="15"/>
       <c r="Q17" s="15"/>
       <c r="R17" s="15"/>
       <c r="S17" s="106" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="T17" s="21"/>
       <c r="U17" s="53" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="V17" s="16"/>
       <c r="W17" s="22" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="X17" s="18" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Y17" s="54"/>
       <c r="Z17" s="54"/>
@@ -6444,45 +6468,45 @@
       <c r="AH17" s="31"/>
       <c r="AI17" s="28"/>
       <c r="AJ17" s="56" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AK17" s="31"/>
       <c r="AL17" s="31"/>
       <c r="AM17" s="131" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AN17" s="37" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AO17" s="35" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AP17" s="34" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AQ17" s="59" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AR17" s="132" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AS17" s="123" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AT17" s="31"/>
       <c r="AU17" s="98" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AV17" s="133"/>
       <c r="AW17" s="17" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AX17" s="31"/>
       <c r="AY17" s="18" t="s">
         <v>26</v>
       </c>
       <c r="AZ17" s="66" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="BA17" s="42"/>
       <c r="BB17" s="42"/>
@@ -6499,12 +6523,12 @@
       <c r="D18" s="15"/>
       <c r="E18" s="16"/>
       <c r="F18" s="83" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="16"/>
       <c r="I18" s="14" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J18" s="15"/>
       <c r="K18" s="16"/>
@@ -6515,36 +6539,36 @@
         <v>26</v>
       </c>
       <c r="N18" s="50" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O18" s="134" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P18" s="49" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q18" s="15"/>
       <c r="R18" s="15"/>
       <c r="S18" s="20" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="T18" s="21"/>
       <c r="U18" s="109" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="V18" s="16"/>
       <c r="W18" s="107" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="X18" s="18" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Y18" s="54"/>
       <c r="Z18" s="54"/>
       <c r="AA18" s="54"/>
       <c r="AB18" s="55"/>
       <c r="AC18" s="123" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AD18" s="28"/>
       <c r="AE18" s="98" t="s">
@@ -6553,19 +6577,19 @@
       <c r="AF18" s="31"/>
       <c r="AG18" s="28"/>
       <c r="AH18" s="56" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AI18" s="28"/>
       <c r="AJ18" s="57" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AK18" s="31"/>
       <c r="AL18" s="31"/>
       <c r="AM18" s="58" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AN18" s="59" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AO18" s="37"/>
       <c r="AP18" s="37"/>
@@ -6577,22 +6601,22 @@
       <c r="AT18" s="31"/>
       <c r="AU18" s="31"/>
       <c r="AV18" s="124" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AW18" s="31"/>
       <c r="AX18" s="31"/>
       <c r="AY18" s="65" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AZ18" s="66" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="BA18" s="67" t="s">
         <v>26</v>
       </c>
       <c r="BB18" s="42"/>
       <c r="BC18" s="75" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" ht="37.5" customHeight="1">
@@ -6606,103 +6630,103 @@
       <c r="D19" s="15"/>
       <c r="E19" s="16"/>
       <c r="F19" s="117" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G19" s="70" t="s">
         <v>76</v>
       </c>
       <c r="H19" s="135" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I19" s="27" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="J19" s="15"/>
       <c r="K19" s="16"/>
       <c r="L19" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M19" s="47" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N19" s="29" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O19" s="15"/>
       <c r="P19" s="15"/>
       <c r="Q19" s="15"/>
       <c r="R19" s="15"/>
       <c r="S19" s="20" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="T19" s="21"/>
       <c r="U19" s="53" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="V19" s="16"/>
       <c r="W19" s="22" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="X19" s="14" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Y19" s="54"/>
       <c r="Z19" s="54"/>
       <c r="AA19" s="54"/>
       <c r="AB19" s="55"/>
       <c r="AC19" s="79" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AD19" s="28" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AE19" s="86" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AF19" s="31"/>
       <c r="AG19" s="28"/>
       <c r="AH19" s="32" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AI19" s="136" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AJ19" s="57" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AK19" s="31"/>
       <c r="AL19" s="31"/>
       <c r="AM19" s="58" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AN19" s="108" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AO19" s="37"/>
       <c r="AP19" s="37"/>
       <c r="AQ19" s="37"/>
       <c r="AR19" s="87" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AS19" s="31"/>
       <c r="AT19" s="69" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AU19" s="83" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AV19" s="133"/>
       <c r="AW19" s="56" t="s">
         <v>124</v>
       </c>
       <c r="AX19" s="137" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AY19" s="14" t="s">
         <v>88</v>
       </c>
       <c r="AZ19" s="66" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="BA19" s="42"/>
       <c r="BB19" s="42"/>
@@ -6734,28 +6758,28 @@
         <v>88</v>
       </c>
       <c r="M20" s="48" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N20" s="51" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
       <c r="Q20" s="15"/>
       <c r="R20" s="15"/>
       <c r="S20" s="20" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="T20" s="21"/>
       <c r="U20" s="90" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="V20" s="16"/>
       <c r="W20" s="22" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="X20" s="18" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y20" s="23" t="s">
         <v>32</v>
@@ -6764,71 +6788,71 @@
         <v>35</v>
       </c>
       <c r="AA20" s="36" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AB20" s="55"/>
       <c r="AC20" s="32" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AD20" s="28"/>
       <c r="AE20" s="32" t="s">
         <v>117</v>
       </c>
       <c r="AF20" s="56" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AG20" s="28"/>
       <c r="AH20" s="32" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AI20" s="28"/>
       <c r="AJ20" s="93" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AK20" s="72" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL20" s="80" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AM20" s="81" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AN20" s="37"/>
       <c r="AO20" s="37"/>
       <c r="AP20" s="37"/>
       <c r="AQ20" s="37"/>
       <c r="AR20" s="74" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AS20" s="122" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AT20" s="69" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AU20" s="120" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AV20" s="138" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AW20" s="31" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AX20" s="31"/>
       <c r="AY20" s="14" t="s">
         <v>88</v>
       </c>
       <c r="AZ20" s="66" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="BA20" s="67" t="s">
         <v>26</v>
       </c>
       <c r="BB20" s="42"/>
       <c r="BC20" s="75" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="21" ht="37.5" customHeight="1">
@@ -6836,18 +6860,18 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="16"/>
       <c r="F21" s="30" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G21" s="31"/>
       <c r="H21" s="16"/>
       <c r="I21" s="88" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="J21" s="15"/>
       <c r="K21" s="16"/>
@@ -6858,47 +6882,47 @@
         <v>26</v>
       </c>
       <c r="N21" s="123" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O21" s="15"/>
       <c r="P21" s="15"/>
       <c r="Q21" s="15"/>
       <c r="R21" s="15"/>
       <c r="S21" s="106" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="T21" s="21"/>
       <c r="U21" s="51" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="V21" s="47" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="W21" s="22" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="X21" s="18" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Y21" s="112" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Z21" s="54"/>
       <c r="AA21" s="54"/>
       <c r="AB21" s="55"/>
       <c r="AC21" s="31" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AD21" s="28" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AE21" s="139" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF21" s="31"/>
       <c r="AG21" s="28"/>
       <c r="AH21" s="79" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AI21" s="28"/>
       <c r="AJ21" s="32" t="s">
@@ -6907,22 +6931,22 @@
       <c r="AK21" s="31"/>
       <c r="AL21" s="31"/>
       <c r="AM21" s="131" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN21" s="37"/>
       <c r="AO21" s="37"/>
       <c r="AP21" s="37"/>
       <c r="AQ21" s="37"/>
       <c r="AR21" s="74" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AS21" s="123" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AT21" s="31"/>
       <c r="AU21" s="31"/>
       <c r="AV21" s="38" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AW21" s="31"/>
       <c r="AX21" s="31"/>
@@ -6930,7 +6954,7 @@
         <v>88</v>
       </c>
       <c r="AZ21" s="66" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="BA21" s="42"/>
       <c r="BB21" s="42"/>
@@ -6947,19 +6971,19 @@
       <c r="D22" s="15"/>
       <c r="E22" s="16"/>
       <c r="F22" s="63" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H22" s="45" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I22" s="84" t="s">
         <v>111</v>
       </c>
       <c r="J22" s="109" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K22" s="16"/>
       <c r="L22" s="19" t="s">
@@ -6969,27 +6993,27 @@
         <v>88</v>
       </c>
       <c r="N22" s="50" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O22" s="51" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P22" s="15"/>
       <c r="Q22" s="15"/>
       <c r="R22" s="15"/>
       <c r="S22" s="106" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="T22" s="21"/>
       <c r="U22" s="51" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="V22" s="16"/>
       <c r="W22" s="22" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="X22" s="18" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Y22" s="23" t="s">
         <v>32</v>
@@ -7006,42 +7030,42 @@
       </c>
       <c r="AD22" s="28"/>
       <c r="AE22" s="139" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AF22" s="31"/>
       <c r="AG22" s="28"/>
       <c r="AH22" s="31"/>
       <c r="AI22" s="28"/>
       <c r="AJ22" s="72" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AK22" s="57" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AL22" s="31"/>
       <c r="AM22" s="58" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AN22" s="36" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AO22" s="34" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AP22" s="37"/>
       <c r="AQ22" s="37"/>
       <c r="AR22" s="74" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AS22" s="63" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AT22" s="79" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AU22" s="31"/>
       <c r="AV22" s="27" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AW22" s="31"/>
       <c r="AX22" s="31"/>
@@ -7049,7 +7073,7 @@
         <v>26</v>
       </c>
       <c r="AZ22" s="66" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="BA22" s="42"/>
       <c r="BB22" s="42"/>
@@ -7066,12 +7090,12 @@
       <c r="D23" s="15"/>
       <c r="E23" s="16"/>
       <c r="F23" s="86" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G23" s="15"/>
       <c r="H23" s="16"/>
       <c r="I23" s="14" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="J23" s="15"/>
       <c r="K23" s="16"/>
@@ -7082,7 +7106,7 @@
         <v>26</v>
       </c>
       <c r="N23" s="141" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="O23" s="15"/>
       <c r="P23" s="15"/>
@@ -7093,17 +7117,17 @@
       </c>
       <c r="T23" s="21"/>
       <c r="U23" s="53" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="V23" s="16"/>
       <c r="W23" s="71" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="X23" s="18" t="s">
         <v>115</v>
       </c>
       <c r="Y23" s="37" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Z23" s="23" t="s">
         <v>32</v>
@@ -7115,42 +7139,42 @@
       </c>
       <c r="AD23" s="28"/>
       <c r="AE23" s="31" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AF23" s="31"/>
       <c r="AG23" s="28"/>
       <c r="AH23" s="91" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AI23" s="28"/>
       <c r="AJ23" s="111" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AK23" s="56" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL23" s="121" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AM23" s="81" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AN23" s="34" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AO23" s="37"/>
       <c r="AP23" s="37"/>
       <c r="AQ23" s="37"/>
       <c r="AR23" s="104" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AS23" s="83" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AT23" s="31"/>
       <c r="AU23" s="31"/>
       <c r="AV23" s="138" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AW23" s="31"/>
       <c r="AX23" s="31"/>
@@ -7158,14 +7182,14 @@
         <v>88</v>
       </c>
       <c r="AZ23" s="100" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="BA23" s="42"/>
       <c r="BB23" s="67" t="s">
         <v>26</v>
       </c>
       <c r="BC23" s="75" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="24" ht="37.5" customHeight="1">
@@ -7173,10 +7197,10 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="142" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C24" s="51" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="16"/>
@@ -7186,7 +7210,7 @@
       <c r="G24" s="15"/>
       <c r="H24" s="16"/>
       <c r="I24" s="18" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="J24" s="15"/>
       <c r="K24" s="16"/>
@@ -7194,92 +7218,92 @@
         <v>26</v>
       </c>
       <c r="M24" s="48" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N24" s="51" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
       <c r="Q24" s="15"/>
       <c r="R24" s="15"/>
       <c r="S24" s="81" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="T24" s="21"/>
       <c r="U24" s="53" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="V24" s="16"/>
       <c r="W24" s="143" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="X24" s="18" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Y24" s="23" t="s">
         <v>32</v>
       </c>
       <c r="Z24" s="37" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AA24" s="78" t="s">
         <v>98</v>
       </c>
       <c r="AB24" s="55"/>
       <c r="AC24" s="79" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AD24" s="28"/>
       <c r="AE24" s="91" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AF24" s="56" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AG24" s="144" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AH24" s="56" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AI24" s="28"/>
       <c r="AJ24" s="93" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AK24" s="72" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AL24" s="31"/>
       <c r="AM24" s="58" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AN24" s="36" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AO24" s="59" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AP24" s="112" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AQ24" s="37" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AR24" s="133" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AS24" s="31"/>
       <c r="AT24" s="31"/>
       <c r="AU24" s="31"/>
       <c r="AV24" s="38" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AW24" s="56" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AX24" s="137" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AY24" s="14" t="s">
         <v>88</v>
@@ -7300,14 +7324,14 @@
       <c r="D25" s="15"/>
       <c r="E25" s="16"/>
       <c r="F25" s="117" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G25" s="145" t="s">
         <v>24</v>
       </c>
       <c r="H25" s="16"/>
       <c r="I25" s="14" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="J25" s="15"/>
       <c r="K25" s="16"/>
@@ -7315,13 +7339,13 @@
         <v>26</v>
       </c>
       <c r="M25" s="48" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N25" s="89" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O25" s="119" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P25" s="15"/>
       <c r="Q25" s="15"/>
@@ -7331,69 +7355,71 @@
       </c>
       <c r="T25" s="21"/>
       <c r="U25" s="85" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="V25" s="16"/>
       <c r="W25" s="97" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="X25" s="18" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Y25" s="54"/>
       <c r="Z25" s="54"/>
       <c r="AA25" s="54"/>
       <c r="AB25" s="55"/>
       <c r="AC25" s="91" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AD25" s="28"/>
       <c r="AE25" s="56" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AF25" s="31"/>
       <c r="AG25" s="28"/>
       <c r="AH25" s="80" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AI25" s="28"/>
       <c r="AJ25" s="57" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK25" s="31"/>
       <c r="AL25" s="31"/>
       <c r="AM25" s="58" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AN25" s="36" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AO25" s="60" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AP25" s="37"/>
       <c r="AQ25" s="37"/>
       <c r="AR25" s="132" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AS25" s="31"/>
       <c r="AT25" s="31"/>
       <c r="AU25" s="31"/>
       <c r="AV25" s="116" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AW25" s="31"/>
       <c r="AX25" s="31"/>
       <c r="AY25" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AZ25" s="41"/>
+      <c r="AZ25" s="66" t="s">
+        <v>464</v>
+      </c>
       <c r="BA25" s="67" t="s">
         <v>26</v>
       </c>
       <c r="BB25" s="42"/>
       <c r="BC25" s="75" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="26" ht="37.5" customHeight="1">
@@ -7401,20 +7427,20 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C26" s="109" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D26" s="90" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="E26" s="16"/>
       <c r="F26" s="92" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="G26" s="146" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="H26" s="16"/>
       <c r="I26" s="46" t="s">
@@ -7426,95 +7452,97 @@
         <v>26</v>
       </c>
       <c r="M26" s="48" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="N26" s="141" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="O26" s="15"/>
       <c r="P26" s="15"/>
       <c r="Q26" s="15"/>
       <c r="R26" s="15"/>
       <c r="S26" s="106" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="T26" s="21"/>
       <c r="U26" s="109" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="V26" s="16"/>
       <c r="W26" s="97" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="X26" s="18" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="Y26" s="54"/>
       <c r="Z26" s="54"/>
       <c r="AA26" s="54"/>
       <c r="AB26" s="55"/>
       <c r="AC26" s="123" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AD26" s="28" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AE26" s="29" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="AF26" s="17" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="AG26" s="147" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AH26" s="148" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="AI26" s="28"/>
       <c r="AJ26" s="93" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AK26" s="72" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="AL26" s="99" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="AM26" s="58" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AN26" s="59" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="AO26" s="108" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AP26" s="37" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="AQ26" s="37"/>
       <c r="AR26" s="61" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="AS26" s="79" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="AT26" s="149" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="AU26" s="31" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="AV26" s="38" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AW26" s="31"/>
       <c r="AX26" s="31"/>
       <c r="AY26" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AZ26" s="41"/>
+      <c r="AZ26" s="66" t="s">
+        <v>492</v>
+      </c>
       <c r="BA26" s="42"/>
       <c r="BB26" s="42"/>
       <c r="BC26" s="43"/>
@@ -7527,22 +7555,22 @@
         <v>23</v>
       </c>
       <c r="C27" s="90" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="D27" s="15"/>
       <c r="E27" s="16"/>
       <c r="F27" s="31" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="G27" s="31" t="s">
         <v>50</v>
       </c>
       <c r="H27" s="16"/>
       <c r="I27" s="95" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="J27" s="150" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="K27" s="16"/>
       <c r="L27" s="19" t="s">
@@ -7559,67 +7587,69 @@
       <c r="Q27" s="15"/>
       <c r="R27" s="15"/>
       <c r="S27" s="106" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="T27" s="21"/>
       <c r="U27" s="90" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="V27" s="16"/>
       <c r="W27" s="143" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="X27" s="18" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="Y27" s="108" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="Z27" s="54"/>
       <c r="AA27" s="54"/>
       <c r="AB27" s="55"/>
       <c r="AC27" s="79" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="AD27" s="28"/>
       <c r="AE27" s="93" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="AF27" s="31"/>
       <c r="AG27" s="28"/>
       <c r="AH27" s="31"/>
       <c r="AI27" s="28"/>
       <c r="AJ27" s="32" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="AK27" s="31"/>
       <c r="AL27" s="31"/>
       <c r="AM27" s="151" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="AN27" s="34" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="AO27" s="37"/>
       <c r="AP27" s="37"/>
       <c r="AQ27" s="37"/>
       <c r="AR27" s="152" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="AS27" s="123" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="AT27" s="31"/>
       <c r="AU27" s="31"/>
       <c r="AV27" s="27" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="AW27" s="31"/>
       <c r="AX27" s="31"/>
       <c r="AY27" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AZ27" s="41"/>
+      <c r="AZ27" s="66" t="s">
+        <v>509</v>
+      </c>
       <c r="BA27" s="42"/>
       <c r="BB27" s="42"/>
       <c r="BC27" s="43"/>
@@ -7629,7 +7659,7 @@
         <v>27.0</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -7645,10 +7675,10 @@
       <c r="J28" s="15"/>
       <c r="K28" s="16"/>
       <c r="L28" s="19" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="M28" s="48" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="N28" s="15" t="s">
         <v>71</v>
@@ -7658,18 +7688,18 @@
       <c r="Q28" s="15"/>
       <c r="R28" s="15"/>
       <c r="S28" s="106" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="T28" s="21"/>
       <c r="U28" s="90" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="V28" s="16"/>
       <c r="W28" s="143" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="X28" s="18" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="Y28" s="54"/>
       <c r="Z28" s="54"/>
@@ -7680,32 +7710,32 @@
       </c>
       <c r="AD28" s="28"/>
       <c r="AE28" s="93" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="AF28" s="31"/>
       <c r="AG28" s="28"/>
       <c r="AH28" s="32" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="AI28" s="28"/>
       <c r="AJ28" s="32" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="AK28" s="31"/>
       <c r="AL28" s="31"/>
       <c r="AM28" s="58" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="AN28" s="36" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="AO28" s="108" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="AP28" s="37"/>
       <c r="AQ28" s="37"/>
       <c r="AR28" s="74" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="AS28" s="31"/>
       <c r="AT28" s="31"/>
@@ -7731,37 +7761,37 @@
         <v>23</v>
       </c>
       <c r="C29" s="51" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D29" s="90" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="E29" s="16"/>
       <c r="F29" s="86" t="s">
         <v>51</v>
       </c>
       <c r="G29" s="105" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="H29" s="16"/>
       <c r="I29" s="18" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="J29" s="77" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="K29" s="16"/>
       <c r="L29" s="47" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="M29" s="101" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="N29" s="50" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="O29" s="51" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="P29" s="15"/>
       <c r="Q29" s="15"/>
@@ -7772,10 +7802,10 @@
       <c r="T29" s="21"/>
       <c r="V29" s="16"/>
       <c r="W29" s="71" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="X29" s="18" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="Y29" s="23" t="s">
         <v>32</v>
@@ -7792,53 +7822,55 @@
       </c>
       <c r="AD29" s="28"/>
       <c r="AE29" s="32" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="AF29" s="63" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="AG29" s="28"/>
       <c r="AH29" s="31"/>
       <c r="AI29" s="28"/>
       <c r="AJ29" s="57" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="AK29" s="31"/>
       <c r="AL29" s="31"/>
       <c r="AM29" s="58" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AN29" s="60" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="AO29" s="37"/>
       <c r="AP29" s="37"/>
       <c r="AQ29" s="37"/>
       <c r="AR29" s="132" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="AS29" s="69" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="AT29" s="122" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="AU29" s="31"/>
       <c r="AV29" s="38" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AW29" s="31"/>
       <c r="AX29" s="31"/>
       <c r="AY29" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="AZ29" s="41"/>
+      <c r="AZ29" s="66" t="s">
+        <v>536</v>
+      </c>
       <c r="BA29" s="42"/>
       <c r="BB29" s="67" t="s">
         <v>26</v>
       </c>
       <c r="BC29" s="75" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
     </row>
     <row r="30" ht="37.5" customHeight="1">
@@ -7846,17 +7878,17 @@
         <v>29.0</v>
       </c>
       <c r="B30" s="44" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="16"/>
       <c r="F30" s="146" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="G30" s="153"/>
       <c r="H30" s="45" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I30" s="18" t="s">
         <v>25</v>
@@ -7867,31 +7899,31 @@
         <v>26</v>
       </c>
       <c r="M30" s="48" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="N30" s="146" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="O30" s="15"/>
       <c r="P30" s="15"/>
       <c r="Q30" s="15"/>
       <c r="R30" s="15"/>
       <c r="S30" s="106" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="T30" s="21"/>
       <c r="U30" s="77" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="V30" s="16"/>
       <c r="W30" s="22" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="X30" s="18" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="Y30" s="112" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="Z30" s="54"/>
       <c r="AA30" s="54"/>
@@ -7901,44 +7933,44 @@
       </c>
       <c r="AD30" s="28"/>
       <c r="AE30" s="139" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF30" s="31"/>
       <c r="AG30" s="28"/>
       <c r="AH30" s="148" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="AI30" s="154" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="AJ30" s="111" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="AK30" s="57" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="AL30" s="31"/>
       <c r="AM30" s="58" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AN30" s="108" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="AO30" s="112" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="AP30" s="59" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="AQ30" s="37"/>
       <c r="AR30" s="155" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="AS30" s="31"/>
       <c r="AT30" s="31"/>
       <c r="AU30" s="31"/>
       <c r="AV30" s="156" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="AW30" s="31"/>
       <c r="AX30" s="31"/>
@@ -7958,13 +7990,13 @@
         <v>23</v>
       </c>
       <c r="C31" s="109" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D31" s="105" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="F31" s="17" t="s">
         <v>24</v>
@@ -7977,33 +8009,33 @@
       <c r="J31" s="15"/>
       <c r="K31" s="16"/>
       <c r="L31" s="47" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="M31" s="101" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="N31" s="51" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="O31" s="109" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P31" s="15"/>
       <c r="Q31" s="15"/>
       <c r="R31" s="15"/>
       <c r="S31" s="20" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="T31" s="21"/>
       <c r="U31" s="109" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="V31" s="16"/>
       <c r="W31" s="22" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="X31" s="18" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y31" s="23" t="s">
         <v>32</v>
@@ -8014,30 +8046,30 @@
       <c r="AA31" s="54"/>
       <c r="AB31" s="55"/>
       <c r="AC31" s="79" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="AD31" s="28"/>
       <c r="AE31" s="29" t="s">
         <v>76</v>
       </c>
       <c r="AF31" s="56" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG31" s="28"/>
       <c r="AH31" s="56" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="AI31" s="28"/>
       <c r="AJ31" s="72" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="AK31" s="31"/>
       <c r="AL31" s="31"/>
       <c r="AM31" s="58" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AN31" s="36" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="AO31" s="37"/>
       <c r="AP31" s="37"/>
@@ -8062,7 +8094,7 @@
         <v>26</v>
       </c>
       <c r="BC31" s="75" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
     </row>
     <row r="32" ht="37.5" customHeight="1">
@@ -8073,12 +8105,12 @@
         <v>23</v>
       </c>
       <c r="C32" s="53" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="D32" s="15"/>
       <c r="E32" s="16"/>
       <c r="F32" s="86" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="16"/>
@@ -8091,13 +8123,13 @@
         <v>26</v>
       </c>
       <c r="M32" s="48" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="N32" s="134" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="O32" s="109" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P32" s="15"/>
       <c r="Q32" s="15"/>
@@ -8107,14 +8139,14 @@
       </c>
       <c r="T32" s="21"/>
       <c r="U32" s="109" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="V32" s="16"/>
       <c r="W32" s="97" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="X32" s="18" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Y32" s="26" t="s">
         <v>35</v>
@@ -8125,61 +8157,63 @@
       <c r="AA32" s="54"/>
       <c r="AB32" s="55"/>
       <c r="AC32" s="72" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="AD32" s="28"/>
       <c r="AE32" s="69" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="AF32" s="86" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="AG32" s="147" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="AH32" s="80" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="AI32" s="28"/>
       <c r="AJ32" s="93" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="AK32" s="72" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="AL32" s="99" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="AM32" s="58" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="AN32" s="37"/>
       <c r="AO32" s="37"/>
       <c r="AP32" s="37"/>
       <c r="AQ32" s="37"/>
       <c r="AR32" s="104" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="AS32" s="122" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="AT32" s="31"/>
       <c r="AU32" s="31"/>
       <c r="AV32" s="87" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="AW32" s="31"/>
       <c r="AX32" s="31"/>
       <c r="AY32" s="65" t="s">
-        <v>576</v>
-      </c>
-      <c r="AZ32" s="41"/>
+        <v>581</v>
+      </c>
+      <c r="AZ32" s="66" t="s">
+        <v>582</v>
+      </c>
       <c r="BA32" s="67" t="s">
         <v>26</v>
       </c>
       <c r="BB32" s="42"/>
       <c r="BC32" s="75" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="33" ht="37.5" customHeight="1">
@@ -8190,49 +8224,49 @@
         <v>23</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="D33" s="15"/>
       <c r="E33" s="16"/>
       <c r="F33" s="17" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="H33" s="45" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="J33" s="15"/>
       <c r="K33" s="16"/>
       <c r="L33" s="19" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="M33" s="48" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="N33" s="85" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="O33" s="89" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="P33" s="15"/>
       <c r="Q33" s="15"/>
       <c r="R33" s="15"/>
       <c r="S33" s="158" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="T33" s="21"/>
       <c r="V33" s="16"/>
       <c r="W33" s="22" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="X33" s="18" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="Y33" s="23" t="s">
         <v>32</v>
@@ -8241,64 +8275,64 @@
         <v>35</v>
       </c>
       <c r="AA33" s="54" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="AB33" s="55"/>
       <c r="AC33" s="32" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="AD33" s="28"/>
       <c r="AE33" s="56" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="AF33" s="31"/>
       <c r="AG33" s="28"/>
       <c r="AH33" s="31" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="AI33" s="28"/>
       <c r="AJ33" s="86" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="AK33" s="57" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="AL33" s="31"/>
       <c r="AM33" s="58" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AN33" s="37" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="AO33" s="36" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="AP33" s="37"/>
       <c r="AQ33" s="37"/>
       <c r="AR33" s="38" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="AS33" s="31" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="AT33" s="120" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="AU33" s="83" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="AV33" s="159"/>
       <c r="AW33" s="93" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="AX33" s="137" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="AY33" s="65" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="AZ33" s="66" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="BA33" s="42"/>
       <c r="BB33" s="42"/>
@@ -8309,18 +8343,18 @@
         <v>33.0</v>
       </c>
       <c r="B34" s="84" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
       <c r="E34" s="16"/>
       <c r="F34" s="86" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="16"/>
       <c r="I34" s="95" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="J34" s="15"/>
       <c r="K34" s="16"/>
@@ -8328,80 +8362,80 @@
         <v>26</v>
       </c>
       <c r="M34" s="48" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="N34" s="160" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="O34" s="49" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="P34" s="15"/>
       <c r="Q34" s="15"/>
       <c r="R34" s="15"/>
       <c r="S34" s="20" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="T34" s="161" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="U34" s="77" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="V34" s="16"/>
       <c r="W34" s="22" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="X34" s="18" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="Y34" s="54"/>
       <c r="Z34" s="54"/>
       <c r="AA34" s="54"/>
       <c r="AB34" s="55"/>
       <c r="AC34" s="79" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="AD34" s="28"/>
       <c r="AE34" s="29" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="AF34" s="30" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="AG34" s="28"/>
       <c r="AH34" s="31"/>
       <c r="AI34" s="28"/>
       <c r="AJ34" s="117" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="AK34" s="72" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="AL34" s="31"/>
       <c r="AM34" s="73" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="AN34" s="37" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="AO34" s="36" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="AP34" s="36" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="AQ34" s="37"/>
       <c r="AR34" s="74" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="AS34" s="17" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="AT34" s="31"/>
       <c r="AU34" s="31"/>
       <c r="AV34" s="87" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="AW34" s="31"/>
       <c r="AX34" s="31"/>
@@ -8424,79 +8458,79 @@
       <c r="D35" s="164"/>
       <c r="E35" s="165"/>
       <c r="F35" s="166" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="G35" s="167" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H35" s="165"/>
       <c r="I35" s="168" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="J35" s="169" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="K35" s="165"/>
       <c r="L35" s="170" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M35" s="171" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="N35" s="169" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="O35" s="172" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="P35" s="164"/>
       <c r="Q35" s="164"/>
       <c r="R35" s="164"/>
       <c r="S35" s="173" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="T35" s="174"/>
       <c r="U35" s="175" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="V35" s="165"/>
       <c r="W35" s="176" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="X35" s="168" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="Y35" s="177" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="Z35" s="178"/>
       <c r="AA35" s="178"/>
       <c r="AB35" s="179"/>
       <c r="AC35" s="180" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="AD35" s="181" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="AE35" s="182" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AF35" s="166"/>
       <c r="AG35" s="181"/>
       <c r="AH35" s="183" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="AI35" s="181"/>
       <c r="AJ35" s="184" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="AK35" s="166"/>
       <c r="AL35" s="166"/>
       <c r="AM35" s="185" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AN35" s="186" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="AO35" s="187"/>
       <c r="AP35" s="187"/>
@@ -8505,24 +8539,24 @@
         <v>25</v>
       </c>
       <c r="AS35" s="189" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="AT35" s="190" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="AU35" s="166"/>
       <c r="AV35" s="191" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="AW35" s="192" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="AX35" s="166"/>
       <c r="AY35" s="163" t="s">
         <v>88</v>
       </c>
       <c r="AZ35" s="193" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="BA35" s="194" t="s">
         <v>26</v>
@@ -8531,7 +8565,7 @@
         <v>26</v>
       </c>
       <c r="BC35" s="195" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="BD35" s="196"/>
       <c r="BE35" s="196"/>
@@ -8540,72 +8574,72 @@
     <row r="36" ht="37.5" customHeight="1">
       <c r="A36" s="197"/>
       <c r="B36" s="198" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="E36" s="199"/>
       <c r="F36" s="198" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="H36" s="199"/>
       <c r="I36" s="198" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="K36" s="199"/>
       <c r="L36" s="200" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="M36" s="200" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="N36" s="198" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="R36" s="199"/>
       <c r="S36" s="198" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="T36" s="199"/>
       <c r="U36" s="198" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="V36" s="199"/>
       <c r="W36" s="201" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="X36" s="198" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="AB36" s="199"/>
       <c r="AC36" s="198" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="AD36" s="199"/>
       <c r="AE36" s="198" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="AG36" s="199"/>
       <c r="AH36" s="198" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="AI36" s="199"/>
       <c r="AJ36" s="198" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="AL36" s="199"/>
       <c r="AM36" s="198" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="AQ36" s="199"/>
       <c r="AR36" s="198" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="AU36" s="199"/>
       <c r="AV36" s="198" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="AX36" s="199"/>
       <c r="AY36" s="200" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="AZ36" s="202"/>
       <c r="BA36" s="203"/>
@@ -8618,167 +8652,167 @@
     <row r="37" ht="37.5" customHeight="1">
       <c r="A37" s="206"/>
       <c r="B37" s="207" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="E37" s="199"/>
       <c r="F37" s="208" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="H37" s="199"/>
       <c r="I37" s="208" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="K37" s="199"/>
       <c r="L37" s="209" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="M37" s="209" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="N37" s="208" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="R37" s="199"/>
       <c r="S37" s="210" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="T37" s="199"/>
       <c r="U37" s="210" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="V37" s="199"/>
       <c r="W37" s="211" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="X37" s="210" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="AB37" s="199"/>
       <c r="AC37" s="210" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="AD37" s="199"/>
       <c r="AE37" s="208" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="AG37" s="199"/>
       <c r="AH37" s="208" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="AI37" s="199"/>
       <c r="AJ37" s="208" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="AL37" s="199"/>
       <c r="AM37" s="208" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="AQ37" s="199"/>
       <c r="AR37" s="208" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="AU37" s="199"/>
       <c r="AV37" s="208" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="AX37" s="199"/>
       <c r="AY37" s="212" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="AZ37" s="213" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="BA37" s="42"/>
       <c r="BB37" s="42"/>
       <c r="BC37" s="214" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
     </row>
     <row r="38" ht="37.5" customHeight="1">
       <c r="A38" s="206"/>
       <c r="B38" s="215" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="E38" s="199"/>
       <c r="F38" s="31" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="H38" s="199"/>
       <c r="I38" s="216" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="K38" s="199"/>
       <c r="L38" s="217" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="M38" s="218" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="N38" s="85" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="S38" s="219" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="T38" s="199"/>
       <c r="U38" s="77" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="V38" s="199"/>
       <c r="W38" s="22" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="X38" s="18" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="AB38" s="199"/>
       <c r="AC38" s="56" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="AD38" s="199"/>
       <c r="AE38" s="220" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="AF38" s="221" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="AG38" s="55" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="AH38" s="80" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="AI38" s="199"/>
       <c r="AJ38" s="222" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="AK38" s="223" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="AM38" s="58" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="AR38" s="224" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="AS38" s="225" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="AT38" s="226" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="AU38" s="227" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="AV38" s="228" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="AW38" s="229" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="AX38" s="230"/>
       <c r="AY38" s="18" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="AZ38" s="41"/>
       <c r="BA38" s="42"/>
@@ -8788,77 +8822,77 @@
     <row r="39" ht="37.5" customHeight="1">
       <c r="A39" s="206"/>
       <c r="B39" s="231" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="E39" s="199"/>
       <c r="F39" s="232" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="G39" s="233" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="I39" s="234" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="K39" s="199"/>
       <c r="L39" s="235" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="M39" s="235" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="N39" s="236" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="S39" s="237" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="T39" s="199"/>
       <c r="U39" s="109" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="V39" s="199"/>
       <c r="W39" s="97" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="X39" s="14" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="AB39" s="199"/>
       <c r="AC39" s="79" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="AD39" s="199"/>
       <c r="AE39" s="34" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="AG39" s="199"/>
       <c r="AH39" s="79" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="AI39" s="199"/>
       <c r="AK39" s="238" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="AM39" s="151" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="AR39" s="239"/>
       <c r="AS39" s="240" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="AU39" s="241" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="AV39" s="239"/>
       <c r="AW39" s="242" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="AY39" s="14" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="AZ39" s="41"/>
       <c r="BA39" s="42"/>
@@ -8868,39 +8902,39 @@
     <row r="40" ht="37.5" customHeight="1">
       <c r="A40" s="206"/>
       <c r="B40" s="243" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="E40" s="199"/>
       <c r="F40" s="244" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="G40" s="245" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="H40" s="86" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="I40" s="246" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="K40" s="199"/>
       <c r="L40" s="247"/>
       <c r="M40" s="248" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="N40" s="249" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="S40" s="250" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="T40" s="199"/>
       <c r="U40" s="53" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="V40" s="199"/>
       <c r="W40" s="71" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="X40" s="251"/>
       <c r="Y40" s="252"/>
@@ -8908,36 +8942,36 @@
       <c r="AA40" s="252"/>
       <c r="AB40" s="253"/>
       <c r="AC40" s="72" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="AD40" s="199"/>
       <c r="AE40" s="254" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="AG40" s="199"/>
       <c r="AH40" s="56" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="AI40" s="199"/>
       <c r="AK40" s="255" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="AM40" s="73" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="AR40" s="239"/>
       <c r="AS40" s="256" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="AU40" s="257" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="AV40" s="258"/>
       <c r="AW40" s="259" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="AY40" s="65" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="AZ40" s="41"/>
       <c r="BA40" s="42"/>
@@ -8947,35 +8981,35 @@
     <row r="41" ht="37.5" customHeight="1">
       <c r="A41" s="206"/>
       <c r="B41" s="260" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="E41" s="199"/>
       <c r="F41" s="261" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
       <c r="G41" s="262" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="H41" s="30" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="I41" s="243" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="K41" s="199"/>
       <c r="L41" s="247"/>
       <c r="M41" s="263" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="N41" s="264" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="S41" s="265" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="T41" s="199"/>
       <c r="U41" s="51" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="V41" s="199"/>
       <c r="W41" s="266"/>
@@ -8985,40 +9019,40 @@
       <c r="AA41" s="252"/>
       <c r="AB41" s="253"/>
       <c r="AC41" s="123" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="AD41" s="199"/>
       <c r="AE41" s="35" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="AF41" s="267" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="AG41" s="21" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="AH41" s="32" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="AI41" s="199"/>
       <c r="AK41" s="268" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="AM41" s="131" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="AR41" s="239"/>
       <c r="AS41" s="242" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="AU41" s="269" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="AV41" s="228" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="AW41" s="270" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="AY41" s="251"/>
       <c r="AZ41" s="41"/>
@@ -9029,35 +9063,35 @@
     <row r="42" ht="37.5" customHeight="1">
       <c r="A42" s="206"/>
       <c r="B42" s="246" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="E42" s="199"/>
       <c r="F42" s="271" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="G42" s="272" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="I42" s="273" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="K42" s="199"/>
       <c r="L42" s="247"/>
       <c r="M42" s="274" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="N42" s="275" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="S42" s="276" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="T42" s="199"/>
       <c r="U42" s="90" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="V42" s="199"/>
       <c r="W42" s="277"/>
@@ -9067,41 +9101,41 @@
       <c r="AA42" s="252"/>
       <c r="AB42" s="253"/>
       <c r="AC42" s="91" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="AD42" s="199"/>
       <c r="AE42" s="278" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="AF42" s="279" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="AG42" s="21" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="AH42" s="148" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="AI42" s="199"/>
       <c r="AJ42" s="280" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="AK42" s="281" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="AM42" s="282" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="AR42" s="239"/>
       <c r="AS42" s="283" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="AU42" s="284" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
       <c r="AV42" s="239"/>
       <c r="AW42" s="285" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="AY42" s="251"/>
       <c r="AZ42" s="41"/>
@@ -9112,38 +9146,38 @@
     <row r="43" ht="37.5" customHeight="1">
       <c r="A43" s="206"/>
       <c r="B43" s="286" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="E43" s="199"/>
       <c r="F43" s="287" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="G43" s="271" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="H43" s="135" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="I43" s="251"/>
       <c r="K43" s="247"/>
       <c r="L43" s="247"/>
       <c r="M43" s="247"/>
       <c r="N43" s="288" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
       <c r="O43" s="289" t="s">
-        <v>794</v>
+        <v>800</v>
       </c>
       <c r="P43" s="289" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
       <c r="Q43" s="290"/>
       <c r="S43" s="291" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="T43" s="199"/>
       <c r="U43" s="85" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="V43" s="199"/>
       <c r="W43" s="277"/>
@@ -9153,31 +9187,31 @@
       <c r="AA43" s="252"/>
       <c r="AB43" s="253"/>
       <c r="AC43" s="31" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="AD43" s="199"/>
       <c r="AF43" s="292" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="AG43" s="199"/>
       <c r="AH43" s="123" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="AI43" s="199"/>
       <c r="AK43" s="293" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="AM43" s="33" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="AR43" s="239"/>
       <c r="AS43" s="229" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="AT43" s="290"/>
       <c r="AV43" s="239"/>
       <c r="AW43" s="257" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="AX43" s="290"/>
       <c r="AY43" s="251"/>
@@ -9189,32 +9223,32 @@
     <row r="44" ht="37.5" customHeight="1">
       <c r="A44" s="206"/>
       <c r="B44" s="294" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="E44" s="199"/>
       <c r="F44" s="295"/>
       <c r="G44" s="295"/>
       <c r="H44" s="296" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="I44" s="251"/>
       <c r="K44" s="247"/>
       <c r="L44" s="247"/>
       <c r="M44" s="247"/>
       <c r="N44" s="297" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="O44" s="298" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="P44" s="298" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="Q44" s="298" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="S44" s="291" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="T44" s="199"/>
       <c r="V44" s="247"/>
@@ -9225,19 +9259,19 @@
       <c r="AA44" s="252"/>
       <c r="AB44" s="253"/>
       <c r="AC44" s="31" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="AD44" s="199"/>
       <c r="AE44" s="299" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
       <c r="AG44" s="199"/>
       <c r="AH44" s="91" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
       <c r="AI44" s="199"/>
       <c r="AK44" s="300" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="AM44" s="301"/>
       <c r="AN44" s="302"/>
@@ -9246,11 +9280,11 @@
       <c r="AQ44" s="302"/>
       <c r="AR44" s="239"/>
       <c r="AS44" s="257" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
       <c r="AV44" s="239"/>
       <c r="AW44" s="303" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="AX44" s="290"/>
       <c r="AY44" s="251"/>
@@ -9266,14 +9300,14 @@
       <c r="F45" s="304"/>
       <c r="G45" s="304"/>
       <c r="H45" s="305" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="I45" s="251"/>
       <c r="K45" s="247"/>
       <c r="L45" s="247"/>
       <c r="M45" s="247"/>
       <c r="N45" s="306" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="S45" s="81"/>
       <c r="T45" s="307"/>
@@ -9287,15 +9321,15 @@
       <c r="AC45" s="40"/>
       <c r="AD45" s="308"/>
       <c r="AE45" s="309" t="s">
-        <v>820</v>
+        <v>826</v>
       </c>
       <c r="AG45" s="199"/>
       <c r="AH45" s="31" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="AI45" s="199"/>
       <c r="AK45" s="310" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="AM45" s="301"/>
       <c r="AN45" s="302"/>
@@ -9304,11 +9338,11 @@
       <c r="AQ45" s="302"/>
       <c r="AR45" s="239"/>
       <c r="AS45" s="311" t="s">
-        <v>823</v>
+        <v>829</v>
       </c>
       <c r="AV45" s="239"/>
       <c r="AW45" s="312" t="s">
-        <v>824</v>
+        <v>830</v>
       </c>
       <c r="AX45" s="290"/>
       <c r="AY45" s="251"/>
@@ -9324,20 +9358,20 @@
       <c r="D46" s="313"/>
       <c r="E46" s="314"/>
       <c r="F46" s="315" t="s">
-        <v>825</v>
+        <v>831</v>
       </c>
       <c r="G46" s="315" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="H46" s="105" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="I46" s="251"/>
       <c r="K46" s="247"/>
       <c r="L46" s="247"/>
       <c r="M46" s="247"/>
       <c r="N46" s="316" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="S46" s="301"/>
       <c r="T46" s="307"/>
@@ -9351,16 +9385,16 @@
       <c r="AC46" s="40"/>
       <c r="AD46" s="308"/>
       <c r="AE46" s="317" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="AG46" s="199"/>
       <c r="AH46" s="40"/>
       <c r="AI46" s="308"/>
       <c r="AJ46" s="318" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="AK46" s="319" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="AM46" s="301"/>
       <c r="AN46" s="302"/>
@@ -9368,10 +9402,10 @@
       <c r="AP46" s="302"/>
       <c r="AQ46" s="302"/>
       <c r="AR46" s="320" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="AV46" s="321" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="AY46" s="251"/>
       <c r="AZ46" s="41"/>
@@ -9389,7 +9423,7 @@
       <c r="L47" s="247"/>
       <c r="M47" s="247"/>
       <c r="N47" s="322" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="S47" s="301"/>
       <c r="T47" s="307"/>
@@ -9403,13 +9437,13 @@
       <c r="AC47" s="40"/>
       <c r="AD47" s="308"/>
       <c r="AE47" s="323" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="AG47" s="199"/>
       <c r="AH47" s="40"/>
       <c r="AI47" s="308"/>
       <c r="AK47" s="324" t="s">
-        <v>836</v>
+        <v>842</v>
       </c>
       <c r="AM47" s="301"/>
       <c r="AN47" s="302"/>
@@ -9417,10 +9451,10 @@
       <c r="AP47" s="302"/>
       <c r="AQ47" s="302"/>
       <c r="AR47" s="321" t="s">
-        <v>837</v>
+        <v>843</v>
       </c>
       <c r="AV47" s="325" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="AY47" s="251"/>
       <c r="AZ47" s="41"/>
@@ -9455,13 +9489,13 @@
       <c r="AC48" s="37"/>
       <c r="AD48" s="308"/>
       <c r="AE48" s="37" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
       <c r="AG48" s="199"/>
       <c r="AH48" s="37"/>
       <c r="AI48" s="308"/>
       <c r="AK48" s="328" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="AM48" s="81"/>
       <c r="AN48" s="37"/>
@@ -9469,10 +9503,10 @@
       <c r="AP48" s="37"/>
       <c r="AQ48" s="37"/>
       <c r="AR48" s="329" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="AV48" s="330" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="AY48" s="251"/>
       <c r="AZ48" s="41"/>
@@ -9519,7 +9553,7 @@
       <c r="AT49" s="40"/>
       <c r="AU49" s="230"/>
       <c r="AV49" s="332" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="AY49" s="251"/>
       <c r="AZ49" s="41"/>
